--- a/KRITIKA KUMARI.xlsx
+++ b/KRITIKA KUMARI.xlsx
@@ -1,20 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\LiteracyIndia\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{8A45BDB8-FFDA-4FE6-8621-6A9C7B1C8013}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F4EC53A6-B25F-44EF-8814-3480B9D1B14D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13020" xr2:uid="{D5BED803-5B69-4FD1-87B4-F6B59F5CB7A4}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13020" activeTab="2" xr2:uid="{D5BED803-5B69-4FD1-87B4-F6B59F5CB7A4}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -35,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="58">
   <si>
     <t>S.NO</t>
   </si>
@@ -143,13 +144,79 @@
   </si>
   <si>
     <t>SALES2022</t>
+  </si>
+  <si>
+    <t>s.no</t>
+  </si>
+  <si>
+    <t>Name</t>
+  </si>
+  <si>
+    <t>Mobile no</t>
+  </si>
+  <si>
+    <t>Aadhar no</t>
+  </si>
+  <si>
+    <t>Date of Birth</t>
+  </si>
+  <si>
+    <t>Appointment time</t>
+  </si>
+  <si>
+    <t>Age</t>
+  </si>
+  <si>
+    <t>City</t>
+  </si>
+  <si>
+    <t>kritika</t>
+  </si>
+  <si>
+    <t>punam</t>
+  </si>
+  <si>
+    <t>Muskan</t>
+  </si>
+  <si>
+    <t>Reena</t>
+  </si>
+  <si>
+    <t>Divya</t>
+  </si>
+  <si>
+    <t>Akancha</t>
+  </si>
+  <si>
+    <t>Dipu</t>
+  </si>
+  <si>
+    <t>delhi</t>
+  </si>
+  <si>
+    <t>Panjab</t>
+  </si>
+  <si>
+    <t>Bihar</t>
+  </si>
+  <si>
+    <t>Hryana</t>
+  </si>
+  <si>
+    <t>UP</t>
+  </si>
+  <si>
+    <t>Rajsthan</t>
+  </si>
+  <si>
+    <t>Data validation</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -170,8 +237,28 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="22"/>
+      <color theme="5" tint="-0.249977111117893"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="24"/>
+      <color theme="1"/>
+      <name val="Algerian"/>
+      <family val="5"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -184,8 +271,26 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="3">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -217,15 +322,127 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="20" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -542,8 +759,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2869325D-98AE-49AB-A4C0-F86C7942BE9F}">
   <dimension ref="D2:L22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L4" sqref="L4"/>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="L10" sqref="L10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1027,12 +1244,389 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6F78ECE8-9984-4112-B0DF-E6208C8E59D9}">
-  <dimension ref="A1"/>
+  <dimension ref="B3:J33"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H19" sqref="H19"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="3" max="4" width="11.42578125" customWidth="1"/>
+    <col min="5" max="5" width="13.5703125" customWidth="1"/>
+    <col min="6" max="6" width="13.7109375" customWidth="1"/>
+    <col min="7" max="7" width="18" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="4" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B4" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="C4" s="6"/>
+      <c r="D4" s="6"/>
+      <c r="E4" s="6"/>
+      <c r="F4" s="6"/>
+      <c r="G4" s="6"/>
+      <c r="H4" s="6"/>
+      <c r="I4" s="7"/>
+    </row>
+    <row r="5" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B5" s="8"/>
+      <c r="C5" s="9"/>
+      <c r="D5" s="9"/>
+      <c r="E5" s="9"/>
+      <c r="F5" s="9"/>
+      <c r="G5" s="9"/>
+      <c r="H5" s="9"/>
+      <c r="I5" s="10"/>
+    </row>
+    <row r="6" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B6" s="8"/>
+      <c r="C6" s="9"/>
+      <c r="D6" s="9"/>
+      <c r="E6" s="9"/>
+      <c r="F6" s="9"/>
+      <c r="G6" s="9"/>
+      <c r="H6" s="9"/>
+      <c r="I6" s="10"/>
+    </row>
+    <row r="7" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B7" s="8"/>
+      <c r="C7" s="9"/>
+      <c r="D7" s="9"/>
+      <c r="E7" s="9"/>
+      <c r="F7" s="9"/>
+      <c r="G7" s="9"/>
+      <c r="H7" s="9"/>
+      <c r="I7" s="10"/>
+    </row>
+    <row r="8" spans="2:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B8" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="C8" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="D8" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="E8" s="12" t="s">
+        <v>39</v>
+      </c>
+      <c r="F8" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="G8" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="H8" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="I8" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="J8" s="5"/>
+    </row>
+    <row r="9" spans="2:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B9" s="12">
+        <v>1</v>
+      </c>
+      <c r="C9" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="D9" s="12">
+        <v>45678934</v>
+      </c>
+      <c r="E9" s="12">
+        <v>458437983</v>
+      </c>
+      <c r="F9" s="13"/>
+      <c r="G9" s="14"/>
+      <c r="H9" s="12">
+        <v>17</v>
+      </c>
+      <c r="I9" s="12" t="s">
+        <v>52</v>
+      </c>
+      <c r="J9" s="5"/>
+    </row>
+    <row r="10" spans="2:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B10" s="12">
+        <v>2</v>
+      </c>
+      <c r="C10" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="D10" s="12">
+        <v>45678935</v>
+      </c>
+      <c r="E10" s="12">
+        <v>3.44444444444444E+16</v>
+      </c>
+      <c r="F10" s="13"/>
+      <c r="G10" s="14"/>
+      <c r="H10" s="12">
+        <v>87</v>
+      </c>
+      <c r="I10" s="12"/>
+      <c r="J10" s="5"/>
+    </row>
+    <row r="11" spans="2:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B11" s="12">
+        <v>3</v>
+      </c>
+      <c r="C11" s="12" t="s">
+        <v>46</v>
+      </c>
+      <c r="D11" s="12">
+        <v>45678936</v>
+      </c>
+      <c r="E11" s="12">
+        <v>444444444</v>
+      </c>
+      <c r="F11" s="13"/>
+      <c r="G11" s="12"/>
+      <c r="H11" s="12"/>
+      <c r="I11" s="12"/>
+      <c r="J11" s="5"/>
+    </row>
+    <row r="12" spans="2:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B12" s="12">
+        <v>4</v>
+      </c>
+      <c r="C12" s="12" t="s">
+        <v>47</v>
+      </c>
+      <c r="D12" s="12">
+        <v>45678937</v>
+      </c>
+      <c r="E12" s="12">
+        <v>4444444444444</v>
+      </c>
+      <c r="F12" s="12"/>
+      <c r="G12" s="12"/>
+      <c r="H12" s="12"/>
+      <c r="I12" s="12"/>
+    </row>
+    <row r="13" spans="2:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B13" s="12">
+        <v>5</v>
+      </c>
+      <c r="C13" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="D13" s="12">
+        <v>45678938</v>
+      </c>
+      <c r="E13" s="12">
+        <v>4444444</v>
+      </c>
+      <c r="F13" s="12"/>
+      <c r="G13" s="12"/>
+      <c r="H13" s="12"/>
+      <c r="I13" s="12"/>
+    </row>
+    <row r="14" spans="2:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B14" s="12">
+        <v>6</v>
+      </c>
+      <c r="C14" s="12" t="s">
+        <v>46</v>
+      </c>
+      <c r="D14" s="12">
+        <v>45678939</v>
+      </c>
+      <c r="E14" s="12">
+        <v>44444444</v>
+      </c>
+      <c r="F14" s="12"/>
+      <c r="G14" s="12"/>
+      <c r="H14" s="12"/>
+      <c r="I14" s="12"/>
+    </row>
+    <row r="15" spans="2:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B15" s="12">
+        <v>7</v>
+      </c>
+      <c r="C15" s="12" t="s">
+        <v>49</v>
+      </c>
+      <c r="D15" s="12">
+        <v>45678940</v>
+      </c>
+      <c r="E15" s="12">
+        <v>4444444444444</v>
+      </c>
+      <c r="F15" s="12"/>
+      <c r="G15" s="12"/>
+      <c r="H15" s="12"/>
+      <c r="I15" s="12"/>
+    </row>
+    <row r="16" spans="2:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B16" s="12">
+        <v>8</v>
+      </c>
+      <c r="C16" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="D16" s="12">
+        <v>45678941</v>
+      </c>
+      <c r="E16" s="12"/>
+      <c r="F16" s="12"/>
+      <c r="G16" s="12"/>
+      <c r="H16" s="12"/>
+      <c r="I16" s="12"/>
+    </row>
+    <row r="17" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F17" s="4"/>
+    </row>
+    <row r="18" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F18" s="4"/>
+    </row>
+    <row r="19" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F19" s="4"/>
+    </row>
+    <row r="20" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F20" s="4"/>
+    </row>
+    <row r="21" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F21" s="4"/>
+    </row>
+    <row r="22" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F22" s="4"/>
+    </row>
+    <row r="23" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F23" s="4"/>
+    </row>
+    <row r="24" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F24" s="4"/>
+    </row>
+    <row r="25" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F25" s="4"/>
+    </row>
+    <row r="26" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F26" s="4"/>
+    </row>
+    <row r="27" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F27" s="4"/>
+    </row>
+    <row r="28" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F28" s="4"/>
+    </row>
+    <row r="29" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F29" s="4"/>
+    </row>
+    <row r="30" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F30" s="4"/>
+    </row>
+    <row r="31" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F31" s="4"/>
+    </row>
+    <row r="32" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F32" s="4"/>
+    </row>
+    <row r="33" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F33" s="4"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="B4:I7"/>
+  </mergeCells>
+  <dataValidations count="7">
+    <dataValidation type="date" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F17:F33" xr:uid="{100B5CF7-BC18-4A0A-8689-1ECA6492D561}">
+      <formula1>43892</formula1>
+      <formula2>43895</formula2>
+    </dataValidation>
+    <dataValidation type="time" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J17:J28" xr:uid="{CE5427F7-5727-4ACE-A726-9218E47DBA07}">
+      <formula1>0.0833333333333333</formula1>
+      <formula2>0.125</formula2>
+    </dataValidation>
+    <dataValidation type="date" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F9:F16" xr:uid="{5DC982A7-8E59-483E-8776-4DF8B67BB0AE}">
+      <formula1>43952</formula1>
+      <formula2>43961</formula2>
+    </dataValidation>
+    <dataValidation type="time" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G9:G16" xr:uid="{C9FCABE4-4737-41F9-BB0B-5E2C149A3EB4}">
+      <formula1>0.375</formula1>
+      <formula2>0.5</formula2>
+    </dataValidation>
+    <dataValidation type="textLength" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H9:H16" xr:uid="{E273B1AC-59CE-43EB-BF0C-ADCF303670B8}">
+      <formula1>1</formula1>
+      <formula2>2</formula2>
+    </dataValidation>
+    <dataValidation type="custom" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E9:E16" xr:uid="{CB136B34-A650-4E97-9670-A8ED74F86F50}">
+      <formula1>ISNUMBER(E9:E16)=TRUE</formula1>
+    </dataValidation>
+    <dataValidation type="custom" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J8:J16" xr:uid="{CB3D47FD-7436-49FE-94D5-9ECB490AEC1C}">
+      <formula1>ISNUMBER(J8:J16)=1</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{C32929A6-4D6D-46A1-9C81-C487DDA39836}">
+          <x14:formula1>
+            <xm:f>Sheet3!$B$2:$B$7</xm:f>
+          </x14:formula1>
+          <xm:sqref>I9</xm:sqref>
+        </x14:dataValidation>
+      </x14:dataValidations>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0950A20C-256E-4FB1-BD7F-39071FF828B9}">
+  <dimension ref="B1:B7"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I9" sqref="I9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="16.28515625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:2" ht="34.5" x14ac:dyDescent="0.55000000000000004">
+      <c r="B1" s="15" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="2" spans="2:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B2" s="16" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="3" spans="2:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B3" s="16" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="4" spans="2:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B4" s="16" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="5" spans="2:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B5" s="16" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="6" spans="2:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B6" s="16" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="7" spans="2:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B7" s="17" t="s">
+        <v>56</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>